--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_64ha_100ha_2%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_64ha_100ha_2%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -3427,28 +3427,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>367.6102894313523</v>
+        <v>465.4955021348358</v>
       </c>
       <c r="AB2" t="n">
-        <v>502.9806158213505</v>
+        <v>636.9114822330642</v>
       </c>
       <c r="AC2" t="n">
-        <v>454.9768517850881</v>
+        <v>576.1255442796195</v>
       </c>
       <c r="AD2" t="n">
-        <v>367610.2894313523</v>
+        <v>465495.5021348358</v>
       </c>
       <c r="AE2" t="n">
-        <v>502980.6158213505</v>
+        <v>636911.4822330642</v>
       </c>
       <c r="AF2" t="n">
         <v>8.018499039165486e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.57682291666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>454976.8517850881</v>
+        <v>576125.5442796195</v>
       </c>
     </row>
     <row r="3">
@@ -3533,28 +3533,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>209.7651935960783</v>
+        <v>278.2506770697385</v>
       </c>
       <c r="AB3" t="n">
-        <v>287.0099920652353</v>
+        <v>380.7148519203245</v>
       </c>
       <c r="AC3" t="n">
-        <v>259.6181612436675</v>
+        <v>344.3799607896985</v>
       </c>
       <c r="AD3" t="n">
-        <v>209765.1935960783</v>
+        <v>278250.6770697384</v>
       </c>
       <c r="AE3" t="n">
-        <v>287009.9920652353</v>
+        <v>380714.8519203245</v>
       </c>
       <c r="AF3" t="n">
         <v>1.219710593149751e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.87109375</v>
       </c>
       <c r="AH3" t="n">
-        <v>259618.1612436675</v>
+        <v>344379.9607896985</v>
       </c>
     </row>
     <row r="4">
@@ -3639,28 +3639,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>183.8518015287289</v>
+        <v>242.481443924333</v>
       </c>
       <c r="AB4" t="n">
-        <v>251.554145820532</v>
+        <v>331.7738091034296</v>
       </c>
       <c r="AC4" t="n">
-        <v>227.5461712019546</v>
+        <v>300.1097824101626</v>
       </c>
       <c r="AD4" t="n">
-        <v>183851.8015287289</v>
+        <v>242481.443924333</v>
       </c>
       <c r="AE4" t="n">
-        <v>251554.145820532</v>
+        <v>331773.8091034297</v>
       </c>
       <c r="AF4" t="n">
         <v>1.380220399237252e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.37369791666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>227546.1712019547</v>
+        <v>300109.7824101626</v>
       </c>
     </row>
     <row r="5">
@@ -3745,28 +3745,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>166.923702314235</v>
+        <v>225.6206645175435</v>
       </c>
       <c r="AB5" t="n">
-        <v>228.3923736602432</v>
+        <v>308.7041468739824</v>
       </c>
       <c r="AC5" t="n">
-        <v>206.5949260688851</v>
+        <v>279.2418563654122</v>
       </c>
       <c r="AD5" t="n">
-        <v>166923.702314235</v>
+        <v>225620.6645175435</v>
       </c>
       <c r="AE5" t="n">
-        <v>228392.3736602432</v>
+        <v>308704.1468739824</v>
       </c>
       <c r="AF5" t="n">
         <v>1.465899559771193e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.70963541666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>206594.9260688851</v>
+        <v>279241.8563654122</v>
       </c>
     </row>
     <row r="6">
@@ -3851,28 +3851,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>163.3207927150495</v>
+        <v>212.1960792590862</v>
       </c>
       <c r="AB6" t="n">
-        <v>223.4627137974867</v>
+        <v>290.3360370724677</v>
       </c>
       <c r="AC6" t="n">
-        <v>202.1357460246074</v>
+        <v>262.6267731835442</v>
       </c>
       <c r="AD6" t="n">
-        <v>163320.7927150496</v>
+        <v>212196.0792590862</v>
       </c>
       <c r="AE6" t="n">
-        <v>223462.7137974866</v>
+        <v>290336.0370724677</v>
       </c>
       <c r="AF6" t="n">
         <v>1.512692821053236e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.37760416666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>202135.7460246074</v>
+        <v>262626.7731835442</v>
       </c>
     </row>
     <row r="7">
@@ -3957,28 +3957,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>160.6909426443444</v>
+        <v>209.5662291883811</v>
       </c>
       <c r="AB7" t="n">
-        <v>219.864436909953</v>
+        <v>286.737760184934</v>
       </c>
       <c r="AC7" t="n">
-        <v>198.8808836330054</v>
+        <v>259.3719107919422</v>
       </c>
       <c r="AD7" t="n">
-        <v>160690.9426443444</v>
+        <v>209566.2291883811</v>
       </c>
       <c r="AE7" t="n">
-        <v>219864.436909953</v>
+        <v>286737.760184934</v>
       </c>
       <c r="AF7" t="n">
         <v>1.542779369265492e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.17578125</v>
       </c>
       <c r="AH7" t="n">
-        <v>198880.8836330054</v>
+        <v>259371.9107919422</v>
       </c>
     </row>
     <row r="8">
@@ -4063,28 +4063,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>158.3424648395831</v>
+        <v>207.2177513836197</v>
       </c>
       <c r="AB8" t="n">
-        <v>216.6511459699516</v>
+        <v>283.5244692449326</v>
       </c>
       <c r="AC8" t="n">
-        <v>195.9742646704346</v>
+        <v>256.4652918293714</v>
       </c>
       <c r="AD8" t="n">
-        <v>158342.4648395831</v>
+        <v>207217.7513836197</v>
       </c>
       <c r="AE8" t="n">
-        <v>216651.1459699516</v>
+        <v>283524.4692449326</v>
       </c>
       <c r="AF8" t="n">
         <v>1.566887180333005e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.01953125</v>
       </c>
       <c r="AH8" t="n">
-        <v>195974.2646704346</v>
+        <v>256465.2918293714</v>
       </c>
     </row>
     <row r="9">
@@ -4169,28 +4169,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>146.4264003136282</v>
+        <v>195.3690066653692</v>
       </c>
       <c r="AB9" t="n">
-        <v>200.3470607858834</v>
+        <v>267.3124939917058</v>
       </c>
       <c r="AC9" t="n">
-        <v>181.2262184934014</v>
+        <v>241.8005647406572</v>
       </c>
       <c r="AD9" t="n">
-        <v>146426.4003136282</v>
+        <v>195369.0066653692</v>
       </c>
       <c r="AE9" t="n">
-        <v>200347.0607858834</v>
+        <v>267312.4939917058</v>
       </c>
       <c r="AF9" t="n">
         <v>1.591742333543611e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.86328125</v>
       </c>
       <c r="AH9" t="n">
-        <v>181226.2184934014</v>
+        <v>241800.5647406572</v>
       </c>
     </row>
     <row r="10">
@@ -4275,28 +4275,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>144.5767686151982</v>
+        <v>193.5193749669392</v>
       </c>
       <c r="AB10" t="n">
-        <v>197.8163130961012</v>
+        <v>264.7817463019236</v>
       </c>
       <c r="AC10" t="n">
-        <v>178.9370018112046</v>
+        <v>239.5113480584604</v>
       </c>
       <c r="AD10" t="n">
-        <v>144576.7686151982</v>
+        <v>193519.3749669392</v>
       </c>
       <c r="AE10" t="n">
-        <v>197816.3130961012</v>
+        <v>264781.7463019236</v>
       </c>
       <c r="AF10" t="n">
         <v>1.607460626359629e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>9.765625</v>
       </c>
       <c r="AH10" t="n">
-        <v>178937.0018112046</v>
+        <v>239511.3480584604</v>
       </c>
     </row>
     <row r="11">
@@ -4381,28 +4381,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>143.705823318798</v>
+        <v>192.648429670539</v>
       </c>
       <c r="AB11" t="n">
-        <v>196.6246473181724</v>
+        <v>263.5900805239949</v>
       </c>
       <c r="AC11" t="n">
-        <v>177.8590669426075</v>
+        <v>238.4334131898633</v>
       </c>
       <c r="AD11" t="n">
-        <v>143705.823318798</v>
+        <v>192648.429670539</v>
       </c>
       <c r="AE11" t="n">
-        <v>196624.6473181724</v>
+        <v>263590.0805239949</v>
       </c>
       <c r="AF11" t="n">
         <v>1.61394562753679e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>9.7265625</v>
       </c>
       <c r="AH11" t="n">
-        <v>177859.0669426075</v>
+        <v>238433.4131898633</v>
       </c>
     </row>
     <row r="12">
@@ -4487,28 +4487,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>143.8576909932378</v>
+        <v>192.8002973449788</v>
       </c>
       <c r="AB12" t="n">
-        <v>196.8324393702698</v>
+        <v>263.7978725760922</v>
       </c>
       <c r="AC12" t="n">
-        <v>178.0470276128907</v>
+        <v>238.6213738601465</v>
       </c>
       <c r="AD12" t="n">
-        <v>143857.6909932378</v>
+        <v>192800.2973449788</v>
       </c>
       <c r="AE12" t="n">
-        <v>196832.4393702697</v>
+        <v>263797.8725760922</v>
       </c>
       <c r="AF12" t="n">
         <v>1.614114382214263e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>10</v>
+        <v>9.7265625</v>
       </c>
       <c r="AH12" t="n">
-        <v>178047.0276128907</v>
+        <v>238621.3738601465</v>
       </c>
     </row>
   </sheetData>
@@ -4784,28 +4784,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>282.9907336475447</v>
+        <v>370.0815105797369</v>
       </c>
       <c r="AB2" t="n">
-        <v>387.2004064466164</v>
+        <v>506.361849619153</v>
       </c>
       <c r="AC2" t="n">
-        <v>350.2465430945342</v>
+        <v>458.0353853748197</v>
       </c>
       <c r="AD2" t="n">
-        <v>282990.7336475448</v>
+        <v>370081.5105797369</v>
       </c>
       <c r="AE2" t="n">
-        <v>387200.4064466164</v>
+        <v>506361.849619153</v>
       </c>
       <c r="AF2" t="n">
         <v>1.035852742790688e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.58203125</v>
       </c>
       <c r="AH2" t="n">
-        <v>350246.5430945342</v>
+        <v>458035.3853748197</v>
       </c>
     </row>
     <row r="3">
@@ -4890,28 +4890,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>181.1361345552245</v>
+        <v>239.2194294558724</v>
       </c>
       <c r="AB3" t="n">
-        <v>247.8384504606137</v>
+        <v>327.3105769977624</v>
       </c>
       <c r="AC3" t="n">
-        <v>224.1850965921747</v>
+        <v>296.0725149124733</v>
       </c>
       <c r="AD3" t="n">
-        <v>181136.1345552245</v>
+        <v>239219.4294558724</v>
       </c>
       <c r="AE3" t="n">
-        <v>247838.4504606137</v>
+        <v>327310.5769977624</v>
       </c>
       <c r="AF3" t="n">
         <v>1.450362661561547e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.84244791666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>224185.0965921747</v>
+        <v>296072.5149124733</v>
       </c>
     </row>
     <row r="4">
@@ -4996,28 +4996,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>160.6050073720897</v>
+        <v>218.6541368539569</v>
       </c>
       <c r="AB4" t="n">
-        <v>219.7468564792575</v>
+        <v>299.1722363831584</v>
       </c>
       <c r="AC4" t="n">
-        <v>198.7745249135903</v>
+        <v>270.619658033709</v>
       </c>
       <c r="AD4" t="n">
-        <v>160605.0073720897</v>
+        <v>218654.1368539569</v>
       </c>
       <c r="AE4" t="n">
-        <v>219746.8564792575</v>
+        <v>299172.2363831584</v>
       </c>
       <c r="AF4" t="n">
         <v>1.598582798609623e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.7421875</v>
       </c>
       <c r="AH4" t="n">
-        <v>198774.5249135903</v>
+        <v>270619.658033709</v>
       </c>
     </row>
     <row r="5">
@@ -5102,28 +5102,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>155.1864126902237</v>
+        <v>203.5218386330592</v>
       </c>
       <c r="AB5" t="n">
-        <v>212.3328961840061</v>
+        <v>278.4675583674552</v>
       </c>
       <c r="AC5" t="n">
-        <v>192.0681425833568</v>
+        <v>251.8910054286199</v>
       </c>
       <c r="AD5" t="n">
-        <v>155186.4126902237</v>
+        <v>203521.8386330592</v>
       </c>
       <c r="AE5" t="n">
-        <v>212332.8961840061</v>
+        <v>278467.5583674553</v>
       </c>
       <c r="AF5" t="n">
         <v>1.680962490369925e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.21484375</v>
       </c>
       <c r="AH5" t="n">
-        <v>192068.1425833568</v>
+        <v>251891.0054286199</v>
       </c>
     </row>
     <row r="6">
@@ -5208,28 +5208,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>142.3851067217597</v>
+        <v>200.4000707848461</v>
       </c>
       <c r="AB6" t="n">
-        <v>194.8175846042016</v>
+        <v>274.1962178748547</v>
       </c>
       <c r="AC6" t="n">
-        <v>176.224467757829</v>
+        <v>248.0273156777677</v>
       </c>
       <c r="AD6" t="n">
-        <v>142385.1067217597</v>
+        <v>200400.0707848461</v>
       </c>
       <c r="AE6" t="n">
-        <v>194817.5846042015</v>
+        <v>274196.2178748547</v>
       </c>
       <c r="AF6" t="n">
         <v>1.72366909330298e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.9609375</v>
       </c>
       <c r="AH6" t="n">
-        <v>176224.467757829</v>
+        <v>248027.3156777677</v>
       </c>
     </row>
     <row r="7">
@@ -5314,28 +5314,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>139.7068840682298</v>
+        <v>188.1096298187697</v>
       </c>
       <c r="AB7" t="n">
-        <v>191.1531222147992</v>
+        <v>257.3798943290898</v>
       </c>
       <c r="AC7" t="n">
-        <v>172.9097365157647</v>
+        <v>232.8159184493469</v>
       </c>
       <c r="AD7" t="n">
-        <v>139706.8840682298</v>
+        <v>188109.6298187697</v>
       </c>
       <c r="AE7" t="n">
-        <v>191153.1222147992</v>
+        <v>257379.8943290898</v>
       </c>
       <c r="AF7" t="n">
         <v>1.75693223493274e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.772135416666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>172909.7365157647</v>
+        <v>232815.9184493469</v>
       </c>
     </row>
     <row r="8">
@@ -5420,28 +5420,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>138.2598226810428</v>
+        <v>186.6625684315827</v>
       </c>
       <c r="AB8" t="n">
-        <v>189.1731889850081</v>
+        <v>255.3999610992987</v>
       </c>
       <c r="AC8" t="n">
-        <v>171.1187653345705</v>
+        <v>231.0249472681527</v>
       </c>
       <c r="AD8" t="n">
-        <v>138259.8226810428</v>
+        <v>186662.5684315827</v>
       </c>
       <c r="AE8" t="n">
-        <v>189173.1889850081</v>
+        <v>255399.9610992987</v>
       </c>
       <c r="AF8" t="n">
         <v>1.772178940612361e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.6875</v>
       </c>
       <c r="AH8" t="n">
-        <v>171118.7653345705</v>
+        <v>231024.9472681527</v>
       </c>
     </row>
     <row r="9">
@@ -5526,28 +5526,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>138.120212766307</v>
+        <v>186.5229585168469</v>
       </c>
       <c r="AB9" t="n">
-        <v>188.982168540512</v>
+        <v>255.2089406548025</v>
       </c>
       <c r="AC9" t="n">
-        <v>170.9459756131982</v>
+        <v>230.8521575467804</v>
       </c>
       <c r="AD9" t="n">
-        <v>138120.212766307</v>
+        <v>186522.9585168469</v>
       </c>
       <c r="AE9" t="n">
-        <v>188982.168540512</v>
+        <v>255208.9406548025</v>
       </c>
       <c r="AF9" t="n">
         <v>1.771809643242958e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.694010416666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>170945.9756131982</v>
+        <v>230852.1575467804</v>
       </c>
     </row>
   </sheetData>
@@ -5823,28 +5823,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>157.1713278825866</v>
+        <v>213.304218320945</v>
       </c>
       <c r="AB2" t="n">
-        <v>215.0487447184738</v>
+        <v>291.8522418245473</v>
       </c>
       <c r="AC2" t="n">
-        <v>194.5247943454131</v>
+        <v>263.9982734820924</v>
       </c>
       <c r="AD2" t="n">
-        <v>157171.3278825866</v>
+        <v>213304.218320945</v>
       </c>
       <c r="AE2" t="n">
-        <v>215048.7447184738</v>
+        <v>291852.2418245472</v>
       </c>
       <c r="AF2" t="n">
         <v>2.053920277516886e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.67317708333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>194524.794345413</v>
+        <v>263998.2734820924</v>
       </c>
     </row>
     <row r="3">
@@ -5929,28 +5929,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>124.8988013211594</v>
+        <v>180.9633609219561</v>
       </c>
       <c r="AB3" t="n">
-        <v>170.8920501137634</v>
+        <v>247.6020539533413</v>
       </c>
       <c r="AC3" t="n">
-        <v>154.5823526994521</v>
+        <v>223.9712614357716</v>
       </c>
       <c r="AD3" t="n">
-        <v>124898.8013211594</v>
+        <v>180963.3609219561</v>
       </c>
       <c r="AE3" t="n">
-        <v>170892.0501137634</v>
+        <v>247602.0539533413</v>
       </c>
       <c r="AF3" t="n">
         <v>2.414226163252841e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.928385416666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>154582.3526994521</v>
+        <v>223971.2614357716</v>
       </c>
     </row>
     <row r="4">
@@ -6035,28 +6035,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>124.1955146638897</v>
+        <v>170.9729233625217</v>
       </c>
       <c r="AB4" t="n">
-        <v>169.9297822824701</v>
+        <v>233.9326965375313</v>
       </c>
       <c r="AC4" t="n">
-        <v>153.7119223594257</v>
+        <v>211.6064883066585</v>
       </c>
       <c r="AD4" t="n">
-        <v>124195.5146638897</v>
+        <v>170972.9233625217</v>
       </c>
       <c r="AE4" t="n">
-        <v>169929.7822824701</v>
+        <v>233932.6965375312</v>
       </c>
       <c r="AF4" t="n">
         <v>2.442355500745409e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.817708333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>153711.9223594257</v>
+        <v>211606.4883066585</v>
       </c>
     </row>
   </sheetData>
@@ -6332,28 +6332,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>197.9044009722303</v>
+        <v>254.7666673541793</v>
       </c>
       <c r="AB2" t="n">
-        <v>270.7815323360541</v>
+        <v>348.5829937859432</v>
       </c>
       <c r="AC2" t="n">
-        <v>244.9385229342479</v>
+        <v>315.3147220984213</v>
       </c>
       <c r="AD2" t="n">
-        <v>197904.4009722304</v>
+        <v>254766.6673541793</v>
       </c>
       <c r="AE2" t="n">
-        <v>270781.5323360541</v>
+        <v>348582.9937859433</v>
       </c>
       <c r="AF2" t="n">
         <v>1.58170910067143e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.125</v>
       </c>
       <c r="AH2" t="n">
-        <v>244938.5229342479</v>
+        <v>315314.7220984213</v>
       </c>
     </row>
     <row r="3">
@@ -6438,28 +6438,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>146.8701753633977</v>
+        <v>194.3171914245723</v>
       </c>
       <c r="AB3" t="n">
-        <v>200.9542533869513</v>
+        <v>265.8733539764347</v>
       </c>
       <c r="AC3" t="n">
-        <v>181.7754614848238</v>
+        <v>240.4987742285975</v>
       </c>
       <c r="AD3" t="n">
-        <v>146870.1753633977</v>
+        <v>194317.1914245723</v>
       </c>
       <c r="AE3" t="n">
-        <v>200954.2533869513</v>
+        <v>265873.3539764347</v>
       </c>
       <c r="AF3" t="n">
         <v>1.969874613433217e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.54036458333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>181775.4614848238</v>
+        <v>240498.7742285975</v>
       </c>
     </row>
     <row r="4">
@@ -6544,28 +6544,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>130.8501608923101</v>
+        <v>178.2630115347039</v>
       </c>
       <c r="AB4" t="n">
-        <v>179.0349628344619</v>
+        <v>243.9073167906976</v>
       </c>
       <c r="AC4" t="n">
-        <v>161.9481172587394</v>
+        <v>220.6291448023332</v>
       </c>
       <c r="AD4" t="n">
-        <v>130850.1608923101</v>
+        <v>178263.0115347039</v>
       </c>
       <c r="AE4" t="n">
-        <v>179034.9628344619</v>
+        <v>243907.3167906976</v>
       </c>
       <c r="AF4" t="n">
         <v>2.110167718094944e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.837239583333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>161948.1172587394</v>
+        <v>220629.1448023332</v>
       </c>
     </row>
     <row r="5">
@@ -6650,28 +6650,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>129.2420566093048</v>
+        <v>176.6549072516985</v>
       </c>
       <c r="AB5" t="n">
-        <v>176.8346836099011</v>
+        <v>241.7070375661368</v>
       </c>
       <c r="AC5" t="n">
-        <v>159.9578295952587</v>
+        <v>218.6388571388526</v>
       </c>
       <c r="AD5" t="n">
-        <v>129242.0566093048</v>
+        <v>176654.9072516985</v>
       </c>
       <c r="AE5" t="n">
-        <v>176834.6836099011</v>
+        <v>241707.0375661368</v>
       </c>
       <c r="AF5" t="n">
         <v>2.141446703475206e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.694010416666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>159957.8295952588</v>
+        <v>218638.8571388526</v>
       </c>
     </row>
   </sheetData>
@@ -6947,28 +6947,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>133.9752283796936</v>
+        <v>189.4485221079752</v>
       </c>
       <c r="AB2" t="n">
-        <v>183.3108180389451</v>
+        <v>259.2118258269387</v>
       </c>
       <c r="AC2" t="n">
-        <v>165.8158908437087</v>
+        <v>234.4730129761738</v>
       </c>
       <c r="AD2" t="n">
-        <v>133975.2283796936</v>
+        <v>189448.5221079751</v>
       </c>
       <c r="AE2" t="n">
-        <v>183310.8180389451</v>
+        <v>259211.8258269387</v>
       </c>
       <c r="AF2" t="n">
         <v>2.562368463109703e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.71614583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>165815.8908437087</v>
+        <v>234473.0129761738</v>
       </c>
     </row>
     <row r="3">
@@ -7053,28 +7053,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>129.8332113978503</v>
+        <v>176.0221075460312</v>
       </c>
       <c r="AB3" t="n">
-        <v>177.6435276714974</v>
+        <v>240.8412130916903</v>
       </c>
       <c r="AC3" t="n">
-        <v>160.6894787148363</v>
+        <v>217.8556657370548</v>
       </c>
       <c r="AD3" t="n">
-        <v>129833.2113978503</v>
+        <v>176022.1075460312</v>
       </c>
       <c r="AE3" t="n">
-        <v>177643.5276714974</v>
+        <v>240841.2130916904</v>
       </c>
       <c r="AF3" t="n">
         <v>2.724092617285433e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.078125</v>
       </c>
       <c r="AH3" t="n">
-        <v>160689.4787148363</v>
+        <v>217855.6657370548</v>
       </c>
     </row>
   </sheetData>
@@ -7350,28 +7350,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>303.8639520950027</v>
+        <v>391.1428251579584</v>
       </c>
       <c r="AB2" t="n">
-        <v>415.7600647878353</v>
+        <v>535.178869384698</v>
       </c>
       <c r="AC2" t="n">
-        <v>376.0805077273994</v>
+        <v>484.1021492188825</v>
       </c>
       <c r="AD2" t="n">
-        <v>303863.9520950028</v>
+        <v>391142.8251579584</v>
       </c>
       <c r="AE2" t="n">
-        <v>415760.0647878353</v>
+        <v>535178.869384698</v>
       </c>
       <c r="AF2" t="n">
         <v>9.742252623675116e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.20052083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>376080.5077273994</v>
+        <v>484102.1492188824</v>
       </c>
     </row>
     <row r="3">
@@ -7456,28 +7456,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>195.0955679717974</v>
+        <v>253.2818203570529</v>
       </c>
       <c r="AB3" t="n">
-        <v>266.9383631078972</v>
+        <v>346.5513606176495</v>
       </c>
       <c r="AC3" t="n">
-        <v>241.4621403833033</v>
+        <v>313.4769851482939</v>
       </c>
       <c r="AD3" t="n">
-        <v>195095.5679717974</v>
+        <v>253281.8203570528</v>
       </c>
       <c r="AE3" t="n">
-        <v>266938.3631078972</v>
+        <v>346551.3606176495</v>
       </c>
       <c r="AF3" t="n">
         <v>1.389327029507272e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.06380208333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>241462.1403833033</v>
+        <v>313476.9851482938</v>
       </c>
     </row>
     <row r="4">
@@ -7562,28 +7562,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>163.9241239477147</v>
+        <v>222.1435307218937</v>
       </c>
       <c r="AB4" t="n">
-        <v>224.2882182071141</v>
+        <v>303.94657901446</v>
       </c>
       <c r="AC4" t="n">
-        <v>202.882465451983</v>
+        <v>274.9383441051127</v>
       </c>
       <c r="AD4" t="n">
-        <v>163924.1239477147</v>
+        <v>222143.5307218937</v>
       </c>
       <c r="AE4" t="n">
-        <v>224288.2182071141</v>
+        <v>303946.57901446</v>
       </c>
       <c r="AF4" t="n">
         <v>1.537982164397022e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.8984375</v>
       </c>
       <c r="AH4" t="n">
-        <v>202882.465451983</v>
+        <v>274938.3441051127</v>
       </c>
     </row>
     <row r="5">
@@ -7668,28 +7668,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>158.5756510067518</v>
+        <v>207.0529746931805</v>
       </c>
       <c r="AB5" t="n">
-        <v>216.9702015713193</v>
+        <v>283.2990145076392</v>
       </c>
       <c r="AC5" t="n">
-        <v>196.2628700530052</v>
+        <v>256.2613541757775</v>
       </c>
       <c r="AD5" t="n">
-        <v>158575.6510067518</v>
+        <v>207052.9746931805</v>
       </c>
       <c r="AE5" t="n">
-        <v>216970.2015713193</v>
+        <v>283299.0145076392</v>
       </c>
       <c r="AF5" t="n">
         <v>1.614227447434847e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.38411458333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>196262.8700530052</v>
+        <v>256261.3541757775</v>
       </c>
     </row>
     <row r="6">
@@ -7774,28 +7774,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>154.852761024703</v>
+        <v>203.3300847111317</v>
       </c>
       <c r="AB6" t="n">
-        <v>211.8763792555683</v>
+        <v>278.2051921918883</v>
       </c>
       <c r="AC6" t="n">
-        <v>191.6551949898434</v>
+        <v>251.6536791126157</v>
       </c>
       <c r="AD6" t="n">
-        <v>154852.761024703</v>
+        <v>203330.0847111318</v>
       </c>
       <c r="AE6" t="n">
-        <v>211876.3792555683</v>
+        <v>278205.1921918883</v>
       </c>
       <c r="AF6" t="n">
         <v>1.668412565866522e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.04557291666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>191655.1949898434</v>
+        <v>251653.6791126157</v>
       </c>
     </row>
     <row r="7">
@@ -7880,28 +7880,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>142.6329374080351</v>
+        <v>191.1775809021683</v>
       </c>
       <c r="AB7" t="n">
-        <v>195.1566774826815</v>
+        <v>261.577600349843</v>
       </c>
       <c r="AC7" t="n">
-        <v>176.5311980879067</v>
+        <v>236.6130012989981</v>
       </c>
       <c r="AD7" t="n">
-        <v>142632.9374080351</v>
+        <v>191177.5809021683</v>
       </c>
       <c r="AE7" t="n">
-        <v>195156.6774826815</v>
+        <v>261577.600349843</v>
       </c>
       <c r="AF7" t="n">
         <v>1.697113946888526e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.876302083333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>176531.1980879068</v>
+        <v>236613.0012989981</v>
       </c>
     </row>
     <row r="8">
@@ -7986,28 +7986,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>140.4801827392557</v>
+        <v>189.0248262333889</v>
       </c>
       <c r="AB8" t="n">
-        <v>192.2111835720258</v>
+        <v>258.6321064391872</v>
       </c>
       <c r="AC8" t="n">
-        <v>173.8668179820564</v>
+        <v>233.9486211931478</v>
       </c>
       <c r="AD8" t="n">
-        <v>140480.1827392557</v>
+        <v>189024.8262333889</v>
       </c>
       <c r="AE8" t="n">
-        <v>192211.1835720259</v>
+        <v>258632.1064391872</v>
       </c>
       <c r="AF8" t="n">
         <v>1.72197989672463e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.733072916666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>173866.8179820564</v>
+        <v>233948.6211931478</v>
       </c>
     </row>
     <row r="9">
@@ -8092,28 +8092,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>139.7974380743897</v>
+        <v>188.3420815685229</v>
       </c>
       <c r="AB9" t="n">
-        <v>191.2770222009879</v>
+        <v>257.6979450681493</v>
       </c>
       <c r="AC9" t="n">
-        <v>173.0218116611663</v>
+        <v>233.1036148722577</v>
       </c>
       <c r="AD9" t="n">
-        <v>139797.4380743897</v>
+        <v>188342.0815685229</v>
       </c>
       <c r="AE9" t="n">
-        <v>191277.0222009879</v>
+        <v>257697.9450681493</v>
       </c>
       <c r="AF9" t="n">
         <v>1.728209254758105e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.694010416666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>173021.8116611663</v>
+        <v>233103.6148722577</v>
       </c>
     </row>
     <row r="10">
@@ -8198,28 +8198,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>140.0132398575408</v>
+        <v>188.5578833516739</v>
       </c>
       <c r="AB10" t="n">
-        <v>191.5722917211978</v>
+        <v>257.9932145883592</v>
       </c>
       <c r="AC10" t="n">
-        <v>173.2889010727808</v>
+        <v>233.3707042838722</v>
       </c>
       <c r="AD10" t="n">
-        <v>140013.2398575408</v>
+        <v>188557.8833516739</v>
       </c>
       <c r="AE10" t="n">
-        <v>191572.2917211978</v>
+        <v>257993.2145883592</v>
       </c>
       <c r="AF10" t="n">
         <v>1.727359796844449e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>9.700520833333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>173288.9010727808</v>
+        <v>233370.7042838722</v>
       </c>
     </row>
   </sheetData>
@@ -8495,28 +8495,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>127.7117289779843</v>
+        <v>173.5920009859217</v>
       </c>
       <c r="AB2" t="n">
-        <v>174.7408218314392</v>
+        <v>237.5162340874153</v>
       </c>
       <c r="AC2" t="n">
-        <v>158.0638030461791</v>
+        <v>214.8480180623093</v>
       </c>
       <c r="AD2" t="n">
-        <v>127711.7289779843</v>
+        <v>173592.0009859217</v>
       </c>
       <c r="AE2" t="n">
-        <v>174740.8218314392</v>
+        <v>237516.2340874153</v>
       </c>
       <c r="AF2" t="n">
         <v>2.902678216451047e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.3515625</v>
       </c>
       <c r="AH2" t="n">
-        <v>158063.8030461791</v>
+        <v>214848.0180623093</v>
       </c>
     </row>
     <row r="3">
@@ -8601,28 +8601,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>127.7844446066505</v>
+        <v>173.664716614588</v>
       </c>
       <c r="AB3" t="n">
-        <v>174.8403145625674</v>
+        <v>237.6157268185435</v>
       </c>
       <c r="AC3" t="n">
-        <v>158.1538003306875</v>
+        <v>214.9380153468176</v>
       </c>
       <c r="AD3" t="n">
-        <v>127784.4446066505</v>
+        <v>173664.716614588</v>
       </c>
       <c r="AE3" t="n">
-        <v>174840.3145625675</v>
+        <v>237615.7268185435</v>
       </c>
       <c r="AF3" t="n">
         <v>2.907015599450497e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.33203125</v>
       </c>
       <c r="AH3" t="n">
-        <v>158153.8003306875</v>
+        <v>214938.0153468176</v>
       </c>
     </row>
   </sheetData>
@@ -8898,28 +8898,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>232.4842481325563</v>
+        <v>309.1576329825227</v>
       </c>
       <c r="AB2" t="n">
-        <v>318.0952047759767</v>
+        <v>423.0031125188584</v>
       </c>
       <c r="AC2" t="n">
-        <v>287.7366448816757</v>
+        <v>382.632289148655</v>
       </c>
       <c r="AD2" t="n">
-        <v>232484.2481325563</v>
+        <v>309157.6329825227</v>
       </c>
       <c r="AE2" t="n">
-        <v>318095.2047759767</v>
+        <v>423003.1125188584</v>
       </c>
       <c r="AF2" t="n">
         <v>1.269274193196708e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.71354166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>287736.6448816757</v>
+        <v>382632.289148655</v>
       </c>
     </row>
     <row r="3">
@@ -9004,28 +9004,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>168.6872740483458</v>
+        <v>216.5963385773867</v>
       </c>
       <c r="AB3" t="n">
-        <v>230.8053703101461</v>
+        <v>296.3566659975039</v>
       </c>
       <c r="AC3" t="n">
-        <v>208.7776297051841</v>
+        <v>268.0728017339826</v>
       </c>
       <c r="AD3" t="n">
-        <v>168687.2740483457</v>
+        <v>216596.3385773867</v>
       </c>
       <c r="AE3" t="n">
-        <v>230805.3703101461</v>
+        <v>296356.6659975038</v>
       </c>
       <c r="AF3" t="n">
         <v>1.67195295118027e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.171875</v>
       </c>
       <c r="AH3" t="n">
-        <v>208777.6297051841</v>
+        <v>268072.8017339826</v>
       </c>
     </row>
     <row r="4">
@@ -9110,28 +9110,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>150.8847625556152</v>
+        <v>198.7596616658753</v>
       </c>
       <c r="AB4" t="n">
-        <v>206.4471886944274</v>
+        <v>271.9517377485373</v>
       </c>
       <c r="AC4" t="n">
-        <v>186.7441587559392</v>
+        <v>245.9970455845578</v>
       </c>
       <c r="AD4" t="n">
-        <v>150884.7625556152</v>
+        <v>198759.6616658753</v>
       </c>
       <c r="AE4" t="n">
-        <v>206447.1886944274</v>
+        <v>271951.7377485373</v>
       </c>
       <c r="AF4" t="n">
         <v>1.811351680705173e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.3125</v>
       </c>
       <c r="AH4" t="n">
-        <v>186744.1587559392</v>
+        <v>245997.0455845578</v>
       </c>
     </row>
     <row r="5">
@@ -9216,28 +9216,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>136.843255526883</v>
+        <v>184.7854744448476</v>
       </c>
       <c r="AB5" t="n">
-        <v>187.2349793101554</v>
+        <v>252.8316382951068</v>
       </c>
       <c r="AC5" t="n">
-        <v>169.3655356707908</v>
+        <v>228.7017415877284</v>
       </c>
       <c r="AD5" t="n">
-        <v>136843.2555268829</v>
+        <v>184785.4744448476</v>
       </c>
       <c r="AE5" t="n">
-        <v>187234.9793101554</v>
+        <v>252831.6382951068</v>
       </c>
       <c r="AF5" t="n">
         <v>1.887447324620722e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.895833333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>169365.5356707908</v>
+        <v>228701.7415877284</v>
       </c>
     </row>
     <row r="6">
@@ -9322,28 +9322,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>133.9935707923783</v>
+        <v>181.9357897103428</v>
       </c>
       <c r="AB6" t="n">
-        <v>183.3359149371903</v>
+        <v>248.9325739221418</v>
       </c>
       <c r="AC6" t="n">
-        <v>165.8385925292091</v>
+        <v>225.1747984461467</v>
       </c>
       <c r="AD6" t="n">
-        <v>133993.5707923782</v>
+        <v>181935.7897103429</v>
       </c>
       <c r="AE6" t="n">
-        <v>183335.9149371903</v>
+        <v>248932.5739221417</v>
       </c>
       <c r="AF6" t="n">
         <v>1.928894066218146e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.680989583333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>165838.5925292091</v>
+        <v>225174.7984461467</v>
       </c>
     </row>
     <row r="7">
@@ -9428,28 +9428,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>133.5450663079237</v>
+        <v>181.4872852258883</v>
       </c>
       <c r="AB7" t="n">
-        <v>182.7222513149386</v>
+        <v>248.31891029989</v>
       </c>
       <c r="AC7" t="n">
-        <v>165.2834961017825</v>
+        <v>224.6197020187201</v>
       </c>
       <c r="AD7" t="n">
-        <v>133545.0663079237</v>
+        <v>181487.2852258883</v>
       </c>
       <c r="AE7" t="n">
-        <v>182722.2513149386</v>
+        <v>248318.91029989</v>
       </c>
       <c r="AF7" t="n">
         <v>1.937642340396149e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.635416666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>165283.4961017825</v>
+        <v>224619.7020187201</v>
       </c>
     </row>
   </sheetData>
@@ -9725,28 +9725,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>262.4310101829286</v>
+        <v>349.2224932462366</v>
       </c>
       <c r="AB2" t="n">
-        <v>359.0696857713446</v>
+        <v>477.82162186856</v>
       </c>
       <c r="AC2" t="n">
-        <v>324.8005789187958</v>
+        <v>432.218996904282</v>
       </c>
       <c r="AD2" t="n">
-        <v>262431.0101829286</v>
+        <v>349222.4932462366</v>
       </c>
       <c r="AE2" t="n">
-        <v>359069.6857713446</v>
+        <v>477821.62186856</v>
       </c>
       <c r="AF2" t="n">
         <v>1.104839975056619e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.95052083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>324800.5789187958</v>
+        <v>432218.996904282</v>
       </c>
     </row>
     <row r="3">
@@ -9831,28 +9831,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>176.7065233776289</v>
+        <v>234.6130659782078</v>
       </c>
       <c r="AB3" t="n">
-        <v>241.7776610267773</v>
+        <v>321.0079472692105</v>
       </c>
       <c r="AC3" t="n">
-        <v>218.7027403955302</v>
+        <v>290.371399319416</v>
       </c>
       <c r="AD3" t="n">
-        <v>176706.5233776289</v>
+        <v>234613.0659782078</v>
       </c>
       <c r="AE3" t="n">
-        <v>241777.6610267773</v>
+        <v>321007.9472692105</v>
       </c>
       <c r="AF3" t="n">
         <v>1.520454522623129e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.59505208333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>218702.7403955302</v>
+        <v>290371.399319416</v>
       </c>
     </row>
     <row r="4">
@@ -9937,28 +9937,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>157.0685731581897</v>
+        <v>214.9409503399878</v>
       </c>
       <c r="AB4" t="n">
-        <v>214.9081511713354</v>
+        <v>294.0916907805208</v>
       </c>
       <c r="AC4" t="n">
-        <v>194.3976188490892</v>
+        <v>266.023992572795</v>
       </c>
       <c r="AD4" t="n">
-        <v>157068.5731581897</v>
+        <v>214940.9503399878</v>
       </c>
       <c r="AE4" t="n">
-        <v>214908.1511713354</v>
+        <v>294091.6907805208</v>
       </c>
       <c r="AF4" t="n">
         <v>1.668143751792259e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.56640625</v>
       </c>
       <c r="AH4" t="n">
-        <v>194397.6188490892</v>
+        <v>266023.992572795</v>
       </c>
     </row>
     <row r="5">
@@ -10043,28 +10043,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>152.5922556100353</v>
+        <v>200.78038796948</v>
       </c>
       <c r="AB5" t="n">
-        <v>208.783456020761</v>
+        <v>274.7165846252806</v>
       </c>
       <c r="AC5" t="n">
-        <v>188.85745600762</v>
+        <v>248.4980193558724</v>
       </c>
       <c r="AD5" t="n">
-        <v>152592.2556100353</v>
+        <v>200780.38796948</v>
       </c>
       <c r="AE5" t="n">
-        <v>208783.456020761</v>
+        <v>274716.5846252806</v>
       </c>
       <c r="AF5" t="n">
         <v>1.740350383175223e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.13020833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>188857.4560076201</v>
+        <v>248498.0193558724</v>
       </c>
     </row>
     <row r="6">
@@ -10149,28 +10149,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>139.4737020905346</v>
+        <v>187.7291542576837</v>
       </c>
       <c r="AB6" t="n">
-        <v>190.834072345654</v>
+        <v>256.859310881015</v>
       </c>
       <c r="AC6" t="n">
-        <v>172.6211363183413</v>
+        <v>232.3450187549128</v>
       </c>
       <c r="AD6" t="n">
-        <v>139473.7020905346</v>
+        <v>187729.1542576837</v>
       </c>
       <c r="AE6" t="n">
-        <v>190834.072345654</v>
+        <v>256859.310881015</v>
       </c>
       <c r="AF6" t="n">
         <v>1.789516953325753e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.850260416666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>172621.1363183413</v>
+        <v>232345.0187549128</v>
       </c>
     </row>
     <row r="7">
@@ -10255,28 +10255,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>137.0262359611049</v>
+        <v>185.281688128254</v>
       </c>
       <c r="AB7" t="n">
-        <v>187.4853412127848</v>
+        <v>253.5105797481458</v>
       </c>
       <c r="AC7" t="n">
-        <v>169.5920033848184</v>
+        <v>229.3158858213899</v>
       </c>
       <c r="AD7" t="n">
-        <v>137026.2359611049</v>
+        <v>185281.688128254</v>
       </c>
       <c r="AE7" t="n">
-        <v>187485.3412127848</v>
+        <v>253510.5797481458</v>
       </c>
       <c r="AF7" t="n">
         <v>1.819758725824729e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.6875</v>
       </c>
       <c r="AH7" t="n">
-        <v>169592.0033848184</v>
+        <v>229315.8858213899</v>
       </c>
     </row>
     <row r="8">
@@ -10361,28 +10361,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>136.4773691977309</v>
+        <v>184.73282136488</v>
       </c>
       <c r="AB8" t="n">
-        <v>186.7343574928442</v>
+        <v>252.7595960282052</v>
       </c>
       <c r="AC8" t="n">
-        <v>168.9126924970965</v>
+        <v>228.636574933668</v>
       </c>
       <c r="AD8" t="n">
-        <v>136477.3691977309</v>
+        <v>184732.82136488</v>
       </c>
       <c r="AE8" t="n">
-        <v>186734.3574928442</v>
+        <v>252759.5960282052</v>
       </c>
       <c r="AF8" t="n">
         <v>1.828124623499021e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.641927083333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>168912.6924970965</v>
+        <v>228636.574933668</v>
       </c>
     </row>
   </sheetData>
@@ -10658,28 +10658,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>341.9226208572318</v>
+        <v>439.5168052061629</v>
       </c>
       <c r="AB2" t="n">
-        <v>467.8336144182829</v>
+        <v>601.3662829960332</v>
       </c>
       <c r="AC2" t="n">
-        <v>423.184230866803</v>
+        <v>543.9727289697703</v>
       </c>
       <c r="AD2" t="n">
-        <v>341922.6208572318</v>
+        <v>439516.8052061629</v>
       </c>
       <c r="AE2" t="n">
-        <v>467833.6144182829</v>
+        <v>601366.2829960332</v>
       </c>
       <c r="AF2" t="n">
         <v>8.546201176045406e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.75</v>
       </c>
       <c r="AH2" t="n">
-        <v>423184.230866803</v>
+        <v>543972.7289697703</v>
       </c>
     </row>
     <row r="3">
@@ -10764,28 +10764,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>204.8724152612731</v>
+        <v>273.1780946798931</v>
       </c>
       <c r="AB3" t="n">
-        <v>280.3154768934122</v>
+        <v>373.7743209079971</v>
       </c>
       <c r="AC3" t="n">
-        <v>253.56256120403</v>
+        <v>338.1018243160913</v>
       </c>
       <c r="AD3" t="n">
-        <v>204872.4152612731</v>
+        <v>273178.0946798931</v>
       </c>
       <c r="AE3" t="n">
-        <v>280315.4768934122</v>
+        <v>373774.3209079971</v>
       </c>
       <c r="AF3" t="n">
         <v>1.271248655526717e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.60416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>253562.56120403</v>
+        <v>338101.8243160913</v>
       </c>
     </row>
     <row r="4">
@@ -10870,28 +10870,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>180.2496265493591</v>
+        <v>229.0306470442908</v>
       </c>
       <c r="AB4" t="n">
-        <v>246.6254910970163</v>
+        <v>313.3698354048874</v>
       </c>
       <c r="AC4" t="n">
-        <v>223.0879003678394</v>
+        <v>283.4622581312641</v>
       </c>
       <c r="AD4" t="n">
-        <v>180249.6265493591</v>
+        <v>229030.6470442908</v>
       </c>
       <c r="AE4" t="n">
-        <v>246625.4910970163</v>
+        <v>313369.8354048874</v>
       </c>
       <c r="AF4" t="n">
         <v>1.431692974921488e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.19140625</v>
       </c>
       <c r="AH4" t="n">
-        <v>223087.9003678394</v>
+        <v>283462.2581312641</v>
       </c>
     </row>
     <row r="5">
@@ -10976,28 +10976,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>164.422471303507</v>
+        <v>222.9653157453526</v>
       </c>
       <c r="AB5" t="n">
-        <v>224.9700790448425</v>
+        <v>305.0709815381525</v>
       </c>
       <c r="AC5" t="n">
-        <v>203.4992504483565</v>
+        <v>275.9554352300531</v>
       </c>
       <c r="AD5" t="n">
-        <v>164422.471303507</v>
+        <v>222965.3157453526</v>
       </c>
       <c r="AE5" t="n">
-        <v>224970.0790448425</v>
+        <v>305070.9815381524</v>
       </c>
       <c r="AF5" t="n">
         <v>1.509121695402535e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.61848958333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>203499.2504483565</v>
+        <v>275955.4352300531</v>
       </c>
     </row>
     <row r="6">
@@ -11082,28 +11082,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>160.4015478608917</v>
+        <v>209.1484029370426</v>
       </c>
       <c r="AB6" t="n">
-        <v>219.4684742000363</v>
+        <v>286.1660718746596</v>
       </c>
       <c r="AC6" t="n">
-        <v>198.522711048386</v>
+        <v>258.8547836116307</v>
       </c>
       <c r="AD6" t="n">
-        <v>160401.5478608917</v>
+        <v>209148.4029370426</v>
       </c>
       <c r="AE6" t="n">
-        <v>219468.4742000363</v>
+        <v>286166.0718746596</v>
       </c>
       <c r="AF6" t="n">
         <v>1.561200262642807e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.26041666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>198522.711048386</v>
+        <v>258854.7836116307</v>
       </c>
     </row>
     <row r="7">
@@ -11188,28 +11188,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>157.8876759076989</v>
+        <v>206.6345309838497</v>
       </c>
       <c r="AB7" t="n">
-        <v>216.0288836894763</v>
+        <v>282.7264813640995</v>
       </c>
       <c r="AC7" t="n">
-        <v>195.4113902286571</v>
+        <v>255.7434627919018</v>
       </c>
       <c r="AD7" t="n">
-        <v>157887.6759076989</v>
+        <v>206634.5309838497</v>
       </c>
       <c r="AE7" t="n">
-        <v>216028.8836894763</v>
+        <v>282726.4813640995</v>
       </c>
       <c r="AF7" t="n">
         <v>1.591669670130263e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.06510416666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>195411.3902286571</v>
+        <v>255743.4627919018</v>
       </c>
     </row>
     <row r="8">
@@ -11294,28 +11294,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>145.9789167601096</v>
+        <v>204.4875957831743</v>
       </c>
       <c r="AB8" t="n">
-        <v>199.7347940463785</v>
+        <v>279.7889499064406</v>
       </c>
       <c r="AC8" t="n">
-        <v>180.6723856321929</v>
+        <v>253.0862852137095</v>
       </c>
       <c r="AD8" t="n">
-        <v>145978.9167601096</v>
+        <v>204487.5957831743</v>
       </c>
       <c r="AE8" t="n">
-        <v>199734.7940463785</v>
+        <v>279788.9499064406</v>
       </c>
       <c r="AF8" t="n">
         <v>1.614730926039589e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.921875</v>
       </c>
       <c r="AH8" t="n">
-        <v>180672.3856321929</v>
+        <v>253086.2852137095</v>
       </c>
     </row>
     <row r="9">
@@ -11400,28 +11400,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>143.4360531999249</v>
+        <v>192.2502280837803</v>
       </c>
       <c r="AB9" t="n">
-        <v>196.2555359401128</v>
+        <v>263.0452435455775</v>
       </c>
       <c r="AC9" t="n">
-        <v>177.5251830364187</v>
+        <v>237.9405746879825</v>
       </c>
       <c r="AD9" t="n">
-        <v>143436.0531999249</v>
+        <v>192250.2280837803</v>
       </c>
       <c r="AE9" t="n">
-        <v>196255.5359401128</v>
+        <v>263045.2435455775</v>
       </c>
       <c r="AF9" t="n">
         <v>1.64182851702803e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.759114583333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>177525.1830364187</v>
+        <v>237940.5746879825</v>
       </c>
     </row>
     <row r="10">
@@ -11506,28 +11506,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>142.7351868582315</v>
+        <v>191.5493617420868</v>
       </c>
       <c r="AB10" t="n">
-        <v>195.2965796913676</v>
+        <v>262.0862872968323</v>
       </c>
       <c r="AC10" t="n">
-        <v>176.6577482261499</v>
+        <v>237.0731398777136</v>
       </c>
       <c r="AD10" t="n">
-        <v>142735.1868582315</v>
+        <v>191549.3617420868</v>
       </c>
       <c r="AE10" t="n">
-        <v>195296.5796913676</v>
+        <v>262086.2872968323</v>
       </c>
       <c r="AF10" t="n">
         <v>1.646061746501247e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>9.733072916666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>176657.7482261499</v>
+        <v>237073.1398777136</v>
       </c>
     </row>
     <row r="11">
@@ -11612,28 +11612,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>142.7146311983962</v>
+        <v>191.5288060822515</v>
       </c>
       <c r="AB11" t="n">
-        <v>195.2684545307292</v>
+        <v>262.0581621361939</v>
       </c>
       <c r="AC11" t="n">
-        <v>176.6323072913689</v>
+        <v>237.0476989429326</v>
       </c>
       <c r="AD11" t="n">
-        <v>142714.6311983962</v>
+        <v>191528.8060822515</v>
       </c>
       <c r="AE11" t="n">
-        <v>195268.4545307292</v>
+        <v>262058.1621361939</v>
       </c>
       <c r="AF11" t="n">
         <v>1.644585038545473e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>9.74609375</v>
       </c>
       <c r="AH11" t="n">
-        <v>176632.3072913689</v>
+        <v>237047.6989429326</v>
       </c>
     </row>
   </sheetData>
@@ -11909,28 +11909,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>205.828918717895</v>
+        <v>272.4671126423399</v>
       </c>
       <c r="AB2" t="n">
-        <v>281.6242071207159</v>
+        <v>372.801523917903</v>
       </c>
       <c r="AC2" t="n">
-        <v>254.7463880552547</v>
+        <v>337.2218697054025</v>
       </c>
       <c r="AD2" t="n">
-        <v>205828.918717895</v>
+        <v>272467.1126423399</v>
       </c>
       <c r="AE2" t="n">
-        <v>281624.2071207159</v>
+        <v>372801.523917903</v>
       </c>
       <c r="AF2" t="n">
         <v>1.464279565425637e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.63932291666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>254746.3880552547</v>
+        <v>337221.8697054025</v>
       </c>
     </row>
     <row r="3">
@@ -12015,28 +12015,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>150.8922426236909</v>
+        <v>207.9765291401457</v>
       </c>
       <c r="AB3" t="n">
-        <v>206.4574232535659</v>
+        <v>284.5626624463229</v>
       </c>
       <c r="AC3" t="n">
-        <v>186.7534165431178</v>
+        <v>257.4044013287346</v>
       </c>
       <c r="AD3" t="n">
-        <v>150892.2426236909</v>
+        <v>207976.5291401457</v>
       </c>
       <c r="AE3" t="n">
-        <v>206457.4232535659</v>
+        <v>284562.6624463229</v>
       </c>
       <c r="AF3" t="n">
         <v>1.859068040162283e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.7421875</v>
       </c>
       <c r="AH3" t="n">
-        <v>186753.4165431178</v>
+        <v>257404.4013287346</v>
       </c>
     </row>
     <row r="4">
@@ -12121,28 +12121,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>144.1631063451632</v>
+        <v>191.6944964834885</v>
       </c>
       <c r="AB4" t="n">
-        <v>197.2503221287483</v>
+        <v>262.2848670529108</v>
       </c>
       <c r="AC4" t="n">
-        <v>178.4250282274023</v>
+        <v>237.2527674605805</v>
       </c>
       <c r="AD4" t="n">
-        <v>144163.1063451632</v>
+        <v>191694.4964834884</v>
       </c>
       <c r="AE4" t="n">
-        <v>197250.3221287483</v>
+        <v>262284.8670529108</v>
       </c>
       <c r="AF4" t="n">
         <v>1.994468797060769e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.01302083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>178425.0282274023</v>
+        <v>237252.7674605805</v>
       </c>
     </row>
     <row r="5">
@@ -12227,28 +12227,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>130.9681227325001</v>
+        <v>178.5668326785297</v>
       </c>
       <c r="AB5" t="n">
-        <v>179.1963634283188</v>
+        <v>244.3230182833228</v>
       </c>
       <c r="AC5" t="n">
-        <v>162.0941140064459</v>
+        <v>221.0051723279431</v>
       </c>
       <c r="AD5" t="n">
-        <v>130968.1227325001</v>
+        <v>178566.8326785298</v>
       </c>
       <c r="AE5" t="n">
-        <v>179196.3634283188</v>
+        <v>244323.0182833228</v>
       </c>
       <c r="AF5" t="n">
         <v>2.058993562924697e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.700520833333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>162094.1140064459</v>
+        <v>221005.1723279431</v>
       </c>
     </row>
     <row r="6">
@@ -12333,28 +12333,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>130.8509246062406</v>
+        <v>178.4496345522703</v>
       </c>
       <c r="AB6" t="n">
-        <v>179.0360077815542</v>
+        <v>244.1626626365582</v>
       </c>
       <c r="AC6" t="n">
-        <v>161.9490624775478</v>
+        <v>220.8601207990451</v>
       </c>
       <c r="AD6" t="n">
-        <v>130850.9246062406</v>
+        <v>178449.6345522703</v>
       </c>
       <c r="AE6" t="n">
-        <v>179036.0077815542</v>
+        <v>244162.6626365582</v>
       </c>
       <c r="AF6" t="n">
         <v>2.066081162028153e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.66796875</v>
       </c>
       <c r="AH6" t="n">
-        <v>161949.0624775478</v>
+        <v>220860.1207990451</v>
       </c>
     </row>
   </sheetData>
@@ -12630,28 +12630,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>173.4367320608933</v>
+        <v>229.775012465069</v>
       </c>
       <c r="AB2" t="n">
-        <v>237.3037882942099</v>
+        <v>314.3883090126802</v>
       </c>
       <c r="AC2" t="n">
-        <v>214.6558477974378</v>
+        <v>284.3835300473662</v>
       </c>
       <c r="AD2" t="n">
-        <v>173436.7320608933</v>
+        <v>229775.012465069</v>
       </c>
       <c r="AE2" t="n">
-        <v>237303.7882942099</v>
+        <v>314388.3090126802</v>
       </c>
       <c r="AF2" t="n">
         <v>1.87413973414885e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.12239583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>214655.8477974378</v>
+        <v>284383.5300473662</v>
       </c>
     </row>
     <row r="3">
@@ -12736,28 +12736,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>138.4289278542625</v>
+        <v>185.3662748897915</v>
       </c>
       <c r="AB3" t="n">
-        <v>189.4045661434008</v>
+        <v>253.6263150869859</v>
       </c>
       <c r="AC3" t="n">
-        <v>171.3280601817062</v>
+        <v>229.4205755419267</v>
       </c>
       <c r="AD3" t="n">
-        <v>138428.9278542625</v>
+        <v>185366.2748897915</v>
       </c>
       <c r="AE3" t="n">
-        <v>189404.5661434009</v>
+        <v>253626.3150869859</v>
       </c>
       <c r="AF3" t="n">
         <v>2.249079322058113e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.09765625</v>
       </c>
       <c r="AH3" t="n">
-        <v>171328.0601817062</v>
+        <v>229420.5755419267</v>
       </c>
     </row>
     <row r="4">
@@ -12842,28 +12842,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>125.9497873646267</v>
+        <v>172.9544542078602</v>
       </c>
       <c r="AB4" t="n">
-        <v>172.3300555846666</v>
+        <v>236.6439144590931</v>
       </c>
       <c r="AC4" t="n">
-        <v>155.8831169464661</v>
+        <v>214.0589513950056</v>
       </c>
       <c r="AD4" t="n">
-        <v>125949.7873646267</v>
+        <v>172954.4542078602</v>
       </c>
       <c r="AE4" t="n">
-        <v>172330.0555846666</v>
+        <v>236643.9144590931</v>
       </c>
       <c r="AF4" t="n">
         <v>2.321611135891123e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.78515625</v>
       </c>
       <c r="AH4" t="n">
-        <v>155883.1169464661</v>
+        <v>214058.9513950056</v>
       </c>
     </row>
   </sheetData>
@@ -23160,28 +23160,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>150.3605257624299</v>
+        <v>196.8572084617672</v>
       </c>
       <c r="AB2" t="n">
-        <v>205.7299047862967</v>
+        <v>269.3487173443661</v>
       </c>
       <c r="AC2" t="n">
-        <v>186.095331417286</v>
+        <v>243.6424537943977</v>
       </c>
       <c r="AD2" t="n">
-        <v>150360.52576243</v>
+        <v>196857.2084617672</v>
       </c>
       <c r="AE2" t="n">
-        <v>205729.9047862967</v>
+        <v>269348.7173443661</v>
       </c>
       <c r="AF2" t="n">
         <v>2.276075516533111e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.20442708333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>186095.331417286</v>
+        <v>243642.4537943977</v>
       </c>
     </row>
     <row r="3">
@@ -23266,28 +23266,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>122.2551446822122</v>
+        <v>178.0226183505637</v>
       </c>
       <c r="AB3" t="n">
-        <v>167.2748824704582</v>
+        <v>243.5784002307583</v>
       </c>
       <c r="AC3" t="n">
-        <v>151.3104024592961</v>
+        <v>220.3316195772372</v>
       </c>
       <c r="AD3" t="n">
-        <v>122255.1446822122</v>
+        <v>178022.6183505637</v>
       </c>
       <c r="AE3" t="n">
-        <v>167274.8824704582</v>
+        <v>243578.4002307583</v>
       </c>
       <c r="AF3" t="n">
         <v>2.568636555608246e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.928385416666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>151310.4024592961</v>
+        <v>220331.6195772372</v>
       </c>
     </row>
     <row r="4">
@@ -23372,28 +23372,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>122.4884092565189</v>
+        <v>178.2558829248704</v>
       </c>
       <c r="AB4" t="n">
-        <v>167.5940453519312</v>
+        <v>243.8975631122312</v>
       </c>
       <c r="AC4" t="n">
-        <v>151.5991048833093</v>
+        <v>220.6203220012504</v>
       </c>
       <c r="AD4" t="n">
-        <v>122488.4092565189</v>
+        <v>178255.8829248704</v>
       </c>
       <c r="AE4" t="n">
-        <v>167594.0453519312</v>
+        <v>243897.5631122312</v>
       </c>
       <c r="AF4" t="n">
         <v>2.56855819454247e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.928385416666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>151599.1048833093</v>
+        <v>220620.3220012504</v>
       </c>
     </row>
   </sheetData>
@@ -23669,28 +23669,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>125.1977167021474</v>
+        <v>179.8698439964995</v>
       </c>
       <c r="AB2" t="n">
-        <v>171.3010393252469</v>
+        <v>246.1058558533703</v>
       </c>
       <c r="AC2" t="n">
-        <v>154.9523085546117</v>
+        <v>222.6178583825342</v>
       </c>
       <c r="AD2" t="n">
-        <v>125197.7167021474</v>
+        <v>179869.8439964995</v>
       </c>
       <c r="AE2" t="n">
-        <v>171301.0393252469</v>
+        <v>246105.8558533703</v>
       </c>
       <c r="AF2" t="n">
         <v>3.13282126562731e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.76822916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>154952.3085546117</v>
+        <v>222617.8583825342</v>
       </c>
     </row>
   </sheetData>
@@ -23966,28 +23966,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>251.6020136920558</v>
+        <v>328.4640100033113</v>
       </c>
       <c r="AB2" t="n">
-        <v>344.2529750307619</v>
+        <v>449.4189492959429</v>
       </c>
       <c r="AC2" t="n">
-        <v>311.3979542560137</v>
+        <v>406.5270355385941</v>
       </c>
       <c r="AD2" t="n">
-        <v>251602.0136920558</v>
+        <v>328464.0100033113</v>
       </c>
       <c r="AE2" t="n">
-        <v>344252.9750307619</v>
+        <v>449418.9492959428</v>
       </c>
       <c r="AF2" t="n">
         <v>1.185320327003489e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.29296875</v>
       </c>
       <c r="AH2" t="n">
-        <v>311397.9542560137</v>
+        <v>406527.0355385941</v>
       </c>
     </row>
     <row r="3">
@@ -24072,28 +24072,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>172.7055924723947</v>
+        <v>230.3267183992119</v>
       </c>
       <c r="AB3" t="n">
-        <v>236.3034108536245</v>
+        <v>315.1431774113222</v>
       </c>
       <c r="AC3" t="n">
-        <v>213.750944975743</v>
+        <v>285.0663548655064</v>
       </c>
       <c r="AD3" t="n">
-        <v>172705.5924723947</v>
+        <v>230326.7183992119</v>
       </c>
       <c r="AE3" t="n">
-        <v>236303.4108536245</v>
+        <v>315143.1774113222</v>
       </c>
       <c r="AF3" t="n">
         <v>1.591673712786855e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.38671875</v>
       </c>
       <c r="AH3" t="n">
-        <v>213750.944975743</v>
+        <v>285066.3548655064</v>
       </c>
     </row>
     <row r="4">
@@ -24178,28 +24178,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>154.3360828341411</v>
+        <v>202.370938987522</v>
       </c>
       <c r="AB4" t="n">
-        <v>211.1694373610088</v>
+        <v>276.8928466983231</v>
       </c>
       <c r="AC4" t="n">
-        <v>191.0157226375013</v>
+        <v>250.4665820310675</v>
       </c>
       <c r="AD4" t="n">
-        <v>154336.0828341411</v>
+        <v>202370.9389875219</v>
       </c>
       <c r="AE4" t="n">
-        <v>211169.4373610088</v>
+        <v>276892.8466983231</v>
       </c>
       <c r="AF4" t="n">
         <v>1.731170651620892e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.46875</v>
       </c>
       <c r="AH4" t="n">
-        <v>191015.7226375013</v>
+        <v>250466.5820310675</v>
       </c>
     </row>
     <row r="5">
@@ -24284,28 +24284,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>149.5134136761614</v>
+        <v>197.5482698295423</v>
       </c>
       <c r="AB5" t="n">
-        <v>204.5708486579171</v>
+        <v>270.2942579952313</v>
       </c>
       <c r="AC5" t="n">
-        <v>185.0468939790531</v>
+        <v>244.4977533726193</v>
       </c>
       <c r="AD5" t="n">
-        <v>149513.4136761614</v>
+        <v>197548.2698295423</v>
       </c>
       <c r="AE5" t="n">
-        <v>204570.8486579171</v>
+        <v>270294.2579952313</v>
       </c>
       <c r="AF5" t="n">
         <v>1.80867204410023e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.01953125</v>
       </c>
       <c r="AH5" t="n">
-        <v>185046.8939790531</v>
+        <v>244497.7533726193</v>
       </c>
     </row>
     <row r="6">
@@ -24390,28 +24390,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>136.8124254273771</v>
+        <v>184.9146013884624</v>
       </c>
       <c r="AB6" t="n">
-        <v>187.1927962078835</v>
+        <v>253.0083154760392</v>
       </c>
       <c r="AC6" t="n">
-        <v>169.3273784645953</v>
+        <v>228.8615569464807</v>
       </c>
       <c r="AD6" t="n">
-        <v>136812.4254273771</v>
+        <v>184914.6013884624</v>
       </c>
       <c r="AE6" t="n">
-        <v>187192.7962078835</v>
+        <v>253008.3154760392</v>
       </c>
       <c r="AF6" t="n">
         <v>1.856692842242061e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.759114583333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>169327.3784645953</v>
+        <v>228861.5569464807</v>
       </c>
     </row>
     <row r="7">
@@ -24496,28 +24496,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>135.0183459907592</v>
+        <v>183.1205219518445</v>
       </c>
       <c r="AB7" t="n">
-        <v>184.7380575735055</v>
+        <v>250.5535768416612</v>
       </c>
       <c r="AC7" t="n">
-        <v>167.1069166402343</v>
+        <v>226.6410951221196</v>
       </c>
       <c r="AD7" t="n">
-        <v>135018.3459907592</v>
+        <v>183120.5219518445</v>
       </c>
       <c r="AE7" t="n">
-        <v>184738.0575735055</v>
+        <v>250553.5768416612</v>
       </c>
       <c r="AF7" t="n">
         <v>1.879158224329283e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.641927083333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>167106.9166402343</v>
+        <v>226641.0951221196</v>
       </c>
     </row>
     <row r="8">
@@ -24602,28 +24602,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>135.1955216954499</v>
+        <v>183.2976976565352</v>
       </c>
       <c r="AB8" t="n">
-        <v>184.9804771891035</v>
+        <v>250.7959964572593</v>
       </c>
       <c r="AC8" t="n">
-        <v>167.3262000679578</v>
+        <v>226.8603785498431</v>
       </c>
       <c r="AD8" t="n">
-        <v>135195.5216954499</v>
+        <v>183297.6976565352</v>
       </c>
       <c r="AE8" t="n">
-        <v>184980.4771891035</v>
+        <v>250795.9964572593</v>
       </c>
       <c r="AF8" t="n">
         <v>1.879269576904684e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.641927083333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>167326.2000679578</v>
+        <v>226860.3785498432</v>
       </c>
     </row>
   </sheetData>
@@ -24899,28 +24899,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>317.1035978920079</v>
+        <v>414.3985549840456</v>
       </c>
       <c r="AB2" t="n">
-        <v>433.8751322592472</v>
+        <v>566.9983849031411</v>
       </c>
       <c r="AC2" t="n">
-        <v>392.4666985839965</v>
+        <v>512.8848548352156</v>
       </c>
       <c r="AD2" t="n">
-        <v>317103.5978920079</v>
+        <v>414398.5549840456</v>
       </c>
       <c r="AE2" t="n">
-        <v>433875.1322592472</v>
+        <v>566998.3849031411</v>
       </c>
       <c r="AF2" t="n">
         <v>9.129808914726657e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.93619791666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>392466.6985839965</v>
+        <v>512884.8548352156</v>
       </c>
     </row>
     <row r="3">
@@ -25005,28 +25005,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>199.9453366183739</v>
+        <v>258.2959895684315</v>
       </c>
       <c r="AB3" t="n">
-        <v>273.5740305268322</v>
+        <v>353.4119681423549</v>
       </c>
       <c r="AC3" t="n">
-        <v>247.4645090169949</v>
+        <v>319.6828259196603</v>
       </c>
       <c r="AD3" t="n">
-        <v>199945.3366183739</v>
+        <v>258295.9895684315</v>
       </c>
       <c r="AE3" t="n">
-        <v>273574.0305268322</v>
+        <v>353411.9681423549</v>
       </c>
       <c r="AF3" t="n">
         <v>1.328004220537482e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.33072916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>247464.5090169949</v>
+        <v>319682.8259196603</v>
       </c>
     </row>
     <row r="4">
@@ -25111,28 +25111,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>177.3192725945266</v>
+        <v>225.9677621704019</v>
       </c>
       <c r="AB4" t="n">
-        <v>242.616051537924</v>
+        <v>309.1790611954907</v>
       </c>
       <c r="AC4" t="n">
-        <v>219.4611160929818</v>
+        <v>279.6714455306224</v>
       </c>
       <c r="AD4" t="n">
-        <v>177319.2725945266</v>
+        <v>225967.7621704019</v>
       </c>
       <c r="AE4" t="n">
-        <v>242616.051537924</v>
+        <v>309179.0611954907</v>
       </c>
       <c r="AF4" t="n">
         <v>1.478050535942757e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.08072916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>219461.1160929818</v>
+        <v>279671.4455306224</v>
       </c>
     </row>
     <row r="5">
@@ -25217,28 +25217,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>161.5532322940744</v>
+        <v>210.2690416776542</v>
       </c>
       <c r="AB5" t="n">
-        <v>221.0442596502475</v>
+        <v>287.6993792386556</v>
       </c>
       <c r="AC5" t="n">
-        <v>199.9481057468582</v>
+        <v>260.2417542728178</v>
       </c>
       <c r="AD5" t="n">
-        <v>161553.2322940744</v>
+        <v>210269.0416776542</v>
       </c>
       <c r="AE5" t="n">
-        <v>221044.2596502475</v>
+        <v>287699.3792386556</v>
       </c>
       <c r="AF5" t="n">
         <v>1.559047876362704e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.50130208333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>199948.1057468582</v>
+        <v>260241.7542728178</v>
       </c>
     </row>
     <row r="6">
@@ -25323,28 +25323,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>157.6643681679432</v>
+        <v>206.2786923250377</v>
       </c>
       <c r="AB6" t="n">
-        <v>215.7233441883005</v>
+        <v>282.2396072126195</v>
       </c>
       <c r="AC6" t="n">
-        <v>195.1350109886461</v>
+        <v>255.3030552261067</v>
       </c>
       <c r="AD6" t="n">
-        <v>157664.3681679432</v>
+        <v>206278.6923250377</v>
       </c>
       <c r="AE6" t="n">
-        <v>215723.3441883005</v>
+        <v>282239.6072126195</v>
       </c>
       <c r="AF6" t="n">
         <v>1.612174082253055e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.15625</v>
       </c>
       <c r="AH6" t="n">
-        <v>195135.0109886461</v>
+        <v>255303.0552261067</v>
       </c>
     </row>
     <row r="7">
@@ -25429,28 +25429,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>145.5203659377889</v>
+        <v>203.870007857986</v>
       </c>
       <c r="AB7" t="n">
-        <v>199.107384581445</v>
+        <v>278.943938861142</v>
       </c>
       <c r="AC7" t="n">
-        <v>180.1048552460177</v>
+        <v>252.3219208365935</v>
       </c>
       <c r="AD7" t="n">
-        <v>145520.3659377889</v>
+        <v>203870.007857986</v>
       </c>
       <c r="AE7" t="n">
-        <v>199107.384581445</v>
+        <v>278943.938861142</v>
       </c>
       <c r="AF7" t="n">
         <v>1.64122747609934e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.98046875</v>
       </c>
       <c r="AH7" t="n">
-        <v>180104.8552460177</v>
+        <v>252321.9208365935</v>
       </c>
     </row>
     <row r="8">
@@ -25535,28 +25535,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>143.256859395857</v>
+        <v>191.938503360656</v>
       </c>
       <c r="AB8" t="n">
-        <v>196.0103550719145</v>
+        <v>262.618728027075</v>
       </c>
       <c r="AC8" t="n">
-        <v>177.3034018861677</v>
+        <v>237.5547652119474</v>
       </c>
       <c r="AD8" t="n">
-        <v>143256.8593958571</v>
+        <v>191938.503360656</v>
       </c>
       <c r="AE8" t="n">
-        <v>196010.3550719146</v>
+        <v>262618.7280270749</v>
       </c>
       <c r="AF8" t="n">
         <v>1.666381929645908e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.830729166666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>177303.4018861677</v>
+        <v>237554.7652119474</v>
       </c>
     </row>
     <row r="9">
@@ -25641,28 +25641,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>141.6426778317019</v>
+        <v>190.3243217965008</v>
       </c>
       <c r="AB9" t="n">
-        <v>193.8017606431739</v>
+        <v>260.4101335983343</v>
       </c>
       <c r="AC9" t="n">
-        <v>175.3055926099236</v>
+        <v>235.5569559357032</v>
       </c>
       <c r="AD9" t="n">
-        <v>141642.6778317019</v>
+        <v>190324.3217965009</v>
       </c>
       <c r="AE9" t="n">
-        <v>193801.7606431739</v>
+        <v>260410.1335983343</v>
       </c>
       <c r="AF9" t="n">
         <v>1.682883251172456e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.733072916666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>175305.5926099236</v>
+        <v>235556.9559357032</v>
       </c>
     </row>
     <row r="10">
@@ -25747,28 +25747,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>140.9131105266347</v>
+        <v>189.5947544914337</v>
       </c>
       <c r="AB10" t="n">
-        <v>192.8035344701436</v>
+        <v>259.411907425304</v>
       </c>
       <c r="AC10" t="n">
-        <v>174.4026357418277</v>
+        <v>234.6539990676074</v>
       </c>
       <c r="AD10" t="n">
-        <v>140913.1105266347</v>
+        <v>189594.7544914337</v>
       </c>
       <c r="AE10" t="n">
-        <v>192803.5344701436</v>
+        <v>259411.907425304</v>
       </c>
       <c r="AF10" t="n">
         <v>1.689976807072588e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>9.6875</v>
       </c>
       <c r="AH10" t="n">
-        <v>174402.6357418277</v>
+        <v>234653.9990676074</v>
       </c>
     </row>
   </sheetData>
@@ -26044,28 +26044,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>131.8261747998314</v>
+        <v>186.0041909462535</v>
       </c>
       <c r="AB2" t="n">
-        <v>180.3703881214264</v>
+        <v>254.499139978307</v>
       </c>
       <c r="AC2" t="n">
-        <v>163.1560914305977</v>
+        <v>230.2100992506378</v>
       </c>
       <c r="AD2" t="n">
-        <v>131826.1747998314</v>
+        <v>186004.1909462535</v>
       </c>
       <c r="AE2" t="n">
-        <v>180370.3881214264</v>
+        <v>254499.139978307</v>
       </c>
       <c r="AF2" t="n">
         <v>3.37140484304221e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.78385416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>163156.0914305976</v>
+        <v>230210.0992506378</v>
       </c>
     </row>
   </sheetData>
@@ -26341,28 +26341,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>180.7163284569347</v>
+        <v>246.7839180617547</v>
       </c>
       <c r="AB2" t="n">
-        <v>247.2640532363959</v>
+        <v>337.6606440300097</v>
       </c>
       <c r="AC2" t="n">
-        <v>223.6655190328644</v>
+        <v>305.4347860735765</v>
       </c>
       <c r="AD2" t="n">
-        <v>180716.3284569347</v>
+        <v>246783.9180617547</v>
       </c>
       <c r="AE2" t="n">
-        <v>247264.0532363959</v>
+        <v>337660.6440300097</v>
       </c>
       <c r="AF2" t="n">
         <v>1.717249969021291e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.61067708333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>223665.5190328644</v>
+        <v>305434.7860735765</v>
       </c>
     </row>
     <row r="3">
@@ -26447,28 +26447,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>142.6731957666589</v>
+        <v>189.8214152615265</v>
       </c>
       <c r="AB3" t="n">
-        <v>195.2117607450241</v>
+        <v>259.7220346905123</v>
       </c>
       <c r="AC3" t="n">
-        <v>176.5810242810012</v>
+        <v>234.9345282218907</v>
       </c>
       <c r="AD3" t="n">
-        <v>142673.1957666589</v>
+        <v>189821.4152615265</v>
       </c>
       <c r="AE3" t="n">
-        <v>195211.7607450241</v>
+        <v>259722.0346905123</v>
       </c>
       <c r="AF3" t="n">
         <v>2.100908969791455e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.3125</v>
       </c>
       <c r="AH3" t="n">
-        <v>176581.0242810012</v>
+        <v>234934.5282218907</v>
       </c>
     </row>
     <row r="4">
@@ -26553,28 +26553,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>127.788243869609</v>
+        <v>175.003783172181</v>
       </c>
       <c r="AB4" t="n">
-        <v>174.8455128817589</v>
+        <v>239.4478967580886</v>
       </c>
       <c r="AC4" t="n">
-        <v>158.1585025295911</v>
+        <v>216.5953255587997</v>
       </c>
       <c r="AD4" t="n">
-        <v>127788.243869609</v>
+        <v>175003.783172181</v>
       </c>
       <c r="AE4" t="n">
-        <v>174845.5128817589</v>
+        <v>239447.8967580886</v>
       </c>
       <c r="AF4" t="n">
         <v>2.2202451504854e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.752604166666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>158158.5025295911</v>
+        <v>216595.3255587997</v>
       </c>
     </row>
     <row r="5">
@@ -26659,28 +26659,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>127.680596692135</v>
+        <v>174.8961359947071</v>
       </c>
       <c r="AB5" t="n">
-        <v>174.6982252644807</v>
+        <v>239.3006091408105</v>
       </c>
       <c r="AC5" t="n">
-        <v>158.0252718357865</v>
+        <v>216.4620948649951</v>
       </c>
       <c r="AD5" t="n">
-        <v>127680.596692135</v>
+        <v>174896.1359947071</v>
       </c>
       <c r="AE5" t="n">
-        <v>174698.2252644807</v>
+        <v>239300.6091408105</v>
       </c>
       <c r="AF5" t="n">
         <v>2.229992990168513e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.713541666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>158025.2718357865</v>
+        <v>216462.0948649951</v>
       </c>
     </row>
   </sheetData>
@@ -26956,28 +26956,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>223.3786970669497</v>
+        <v>290.1960129031035</v>
       </c>
       <c r="AB2" t="n">
-        <v>305.6365880994583</v>
+        <v>397.0589873985582</v>
       </c>
       <c r="AC2" t="n">
-        <v>276.4670610949818</v>
+        <v>359.1642349170279</v>
       </c>
       <c r="AD2" t="n">
-        <v>223378.6970669497</v>
+        <v>290196.0129031034</v>
       </c>
       <c r="AE2" t="n">
-        <v>305636.5880994583</v>
+        <v>397058.9873985582</v>
       </c>
       <c r="AF2" t="n">
         <v>1.36439498383501e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.13411458333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>276467.0610949819</v>
+        <v>359164.2349170279</v>
       </c>
     </row>
     <row r="3">
@@ -27062,28 +27062,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>155.0720417101539</v>
+        <v>212.3675639861055</v>
       </c>
       <c r="AB3" t="n">
-        <v>212.1764087633832</v>
+        <v>290.5706700413475</v>
       </c>
       <c r="AC3" t="n">
-        <v>191.9265901025265</v>
+        <v>262.8390131111836</v>
       </c>
       <c r="AD3" t="n">
-        <v>155072.0417101539</v>
+        <v>212367.5639861055</v>
       </c>
       <c r="AE3" t="n">
-        <v>212176.4087633832</v>
+        <v>290570.6700413475</v>
       </c>
       <c r="AF3" t="n">
         <v>1.758543001724252e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.97005208333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>191926.5901025265</v>
+        <v>262839.0131111837</v>
       </c>
     </row>
     <row r="4">
@@ -27168,28 +27168,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>147.7590659993149</v>
+        <v>195.4664859372208</v>
       </c>
       <c r="AB4" t="n">
-        <v>202.1704727700998</v>
+        <v>267.445869431935</v>
       </c>
       <c r="AC4" t="n">
-        <v>182.8756065970195</v>
+        <v>241.9212110160646</v>
       </c>
       <c r="AD4" t="n">
-        <v>147759.0659993149</v>
+        <v>195466.4859372208</v>
       </c>
       <c r="AE4" t="n">
-        <v>202170.4727700998</v>
+        <v>267445.869431935</v>
       </c>
       <c r="AF4" t="n">
         <v>1.894754394903863e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.17578125</v>
       </c>
       <c r="AH4" t="n">
-        <v>182875.6065970195</v>
+        <v>241921.2110160646</v>
       </c>
     </row>
     <row r="5">
@@ -27274,28 +27274,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>133.8820628411057</v>
+        <v>181.656802586716</v>
       </c>
       <c r="AB5" t="n">
-        <v>183.1833448388757</v>
+        <v>248.5508514315524</v>
       </c>
       <c r="AC5" t="n">
-        <v>165.700583506944</v>
+        <v>224.8295070143082</v>
       </c>
       <c r="AD5" t="n">
-        <v>133882.0628411057</v>
+        <v>181656.802586716</v>
       </c>
       <c r="AE5" t="n">
-        <v>183183.3448388757</v>
+        <v>248550.8514315524</v>
       </c>
       <c r="AF5" t="n">
         <v>1.969170014666191e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.791666666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>165700.583506944</v>
+        <v>224829.5070143082</v>
       </c>
     </row>
     <row r="6">
@@ -27380,28 +27380,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>132.2442502659892</v>
+        <v>180.0189900115995</v>
       </c>
       <c r="AB6" t="n">
-        <v>180.9424174184111</v>
+        <v>246.3099240110878</v>
       </c>
       <c r="AC6" t="n">
-        <v>163.6735270543265</v>
+        <v>222.8024505616907</v>
       </c>
       <c r="AD6" t="n">
-        <v>132244.2502659892</v>
+        <v>180018.9900115995</v>
       </c>
       <c r="AE6" t="n">
-        <v>180942.4174184111</v>
+        <v>246309.9240110878</v>
       </c>
       <c r="AF6" t="n">
         <v>1.992750760418904e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.680989583333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>163673.5270543265</v>
+        <v>222802.4505616907</v>
       </c>
     </row>
   </sheetData>
